--- a/Project Status.xlsx
+++ b/Project Status.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="57">
   <si>
     <t>Class #</t>
   </si>
@@ -135,13 +135,73 @@
   </si>
   <si>
     <t>Incomes</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bigsvg.html or class6.html need to be cleaned up</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>D25</t>
+  </si>
+  <si>
+    <t>TO DO LIST</t>
+  </si>
+  <si>
+    <t>Comment Class 7 Code</t>
+  </si>
+  <si>
+    <t>Comment Class 8 Code</t>
+  </si>
+  <si>
+    <t>Clean up Barley bar chart file</t>
+  </si>
+  <si>
+    <t>Clean up Incomes Data File (Small Multiples)</t>
+  </si>
+  <si>
+    <t>Clean up Incomes Data (NYT recreation)</t>
+  </si>
+  <si>
+    <t>Work on CBO's federal budget by accounts data</t>
+  </si>
+  <si>
+    <t>Comment Class 9 code</t>
+  </si>
+  <si>
+    <t>Comment Class 10 code</t>
+  </si>
+  <si>
+    <t>Comment Class 11 code</t>
+  </si>
+  <si>
+    <t>Clean up Heat Map data</t>
+  </si>
+  <si>
+    <t>Work on Federal Budget Data</t>
+  </si>
+  <si>
+    <t>Work on CMS data</t>
+  </si>
+  <si>
+    <t>Work on Military World Map data</t>
+  </si>
+  <si>
+    <t>Work on LTBO Revenue, Spending, Deficit, Debt chart</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,13 +209,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -170,9 +244,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -203,9 +283,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I20" totalsRowShown="0">
-  <autoFilter ref="A1:I20"/>
-  <tableColumns count="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J20" totalsRowShown="0">
+  <autoFilter ref="A1:J20"/>
+  <tableColumns count="10">
     <tableColumn id="1" name="Class #"/>
     <tableColumn id="2" name="Topic" dataDxfId="2"/>
     <tableColumn id="7" name="Example" dataDxfId="1"/>
@@ -215,6 +295,7 @@
     <tableColumn id="6" name="Add to Bl.ocks" dataDxfId="0"/>
     <tableColumn id="8" name="PGPF Project"/>
     <tableColumn id="9" name="File name"/>
+    <tableColumn id="10" name="Notes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -483,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -498,9 +579,11 @@
     <col min="5" max="5" width="23" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" customWidth="1"/>
     <col min="7" max="7" width="27" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -528,8 +611,11 @@
       <c r="I1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -549,7 +635,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -571,8 +657,11 @@
       <c r="G3" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -586,18 +675,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -614,7 +703,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -631,7 +720,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -647,22 +736,37 @@
       <c r="E8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -673,7 +777,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
@@ -681,7 +785,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>8</v>
       </c>
@@ -689,7 +793,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>8</v>
       </c>
@@ -700,7 +804,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>8</v>
       </c>
@@ -708,7 +812,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>9</v>
       </c>
@@ -725,7 +829,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>9</v>
       </c>
@@ -780,10 +884,86 @@
         <v>27</v>
       </c>
     </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B40" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Project Status.xlsx
+++ b/Project Status.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="55">
   <si>
     <t>Class #</t>
   </si>
@@ -153,12 +153,6 @@
   </si>
   <si>
     <t>TO DO LIST</t>
-  </si>
-  <si>
-    <t>Comment Class 7 Code</t>
-  </si>
-  <si>
-    <t>Comment Class 8 Code</t>
   </si>
   <si>
     <t>Clean up Barley bar chart file</t>
@@ -564,10 +558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -776,6 +770,9 @@
       <c r="C10" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -784,6 +781,9 @@
       <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -792,6 +792,9 @@
       <c r="B12" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -803,6 +806,9 @@
       <c r="C13" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -811,6 +817,9 @@
       <c r="B14" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -889,32 +898,32 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B31" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>48</v>
       </c>
@@ -929,13 +938,13 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" s="1" t="s">
+    <row r="36" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" s="1" t="s">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
         <v>52</v>
       </c>
     </row>
@@ -944,19 +953,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:2" ht="45" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="B40" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="B41" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
